--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022年第一季度/技术面20220701.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022年第一季度/技术面20220701.xlsx
@@ -2807,9 +2807,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2832,9 +2832,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2845,8 +2853,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,17 +2877,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2876,7 +2907,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2891,77 +2922,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,7 +2939,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3009,13 +3009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,7 +3039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,7 +3063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,19 +3087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3081,13 +3111,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3099,7 +3147,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3111,85 +3183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,26 +3221,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3260,17 +3257,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3307,159 +3309,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3531,7 +3531,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3881,7 +3881,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -3940,7 +3940,7 @@
         <v>6.799</v>
       </c>
     </row>
-    <row r="3" ht="28" hidden="1" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>4.704</v>
       </c>
     </row>
-    <row r="4" ht="41" hidden="1" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>4.277</v>
       </c>
     </row>
-    <row r="5" ht="28" hidden="1" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>18.104</v>
       </c>
     </row>
-    <row r="11" ht="41" hidden="1" spans="1:7">
+    <row r="11" hidden="1" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="18" ht="28" hidden="1" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>13.312</v>
       </c>
     </row>
-    <row r="20" ht="41" hidden="1" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>52.832</v>
       </c>
     </row>
-    <row r="21" ht="28" hidden="1" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>5.727</v>
       </c>
     </row>
-    <row r="22" ht="28" hidden="1" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>14.281</v>
       </c>
     </row>
-    <row r="28" ht="28" hidden="1" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="29" ht="41" hidden="1" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>19.943</v>
       </c>
     </row>
-    <row r="31" ht="28" hidden="1" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>11.331</v>
       </c>
     </row>
-    <row r="37" ht="41" hidden="1" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>10.929</v>
       </c>
     </row>
-    <row r="39" ht="28" hidden="1" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>11.808</v>
       </c>
     </row>
-    <row r="40" ht="55" hidden="1" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>13.884</v>
       </c>
     </row>
-    <row r="44" ht="28" hidden="1" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>19.512</v>
       </c>
     </row>
-    <row r="45" ht="55" hidden="1" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>9.349</v>
       </c>
     </row>
-    <row r="47" ht="28" hidden="1" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>6.546</v>
       </c>
     </row>
-    <row r="48" ht="28" hidden="1" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>135</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>5.073</v>
       </c>
     </row>
-    <row r="50" ht="28" hidden="1" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>58.795</v>
       </c>
     </row>
-    <row r="51" ht="41" hidden="1" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>10.096</v>
       </c>
     </row>
-    <row r="52" ht="41" hidden="1" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>51.182</v>
       </c>
     </row>
-    <row r="54" ht="28" hidden="1" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>17.389</v>
       </c>
     </row>
-    <row r="59" ht="55" hidden="1" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>6.598</v>
       </c>
     </row>
-    <row r="61" ht="28" hidden="1" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>167</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>14.343</v>
       </c>
     </row>
-    <row r="62" ht="28" hidden="1" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>170</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>4.928</v>
       </c>
     </row>
-    <row r="64" ht="28" hidden="1" spans="1:7">
+    <row r="64" hidden="1" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>175</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>2.736</v>
       </c>
     </row>
-    <row r="66" ht="28" hidden="1" spans="1:7">
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>21.566</v>
       </c>
     </row>
-    <row r="67" ht="28" hidden="1" spans="1:7">
+    <row r="67" hidden="1" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>182</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>7.785</v>
       </c>
     </row>
-    <row r="68" ht="28" hidden="1" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>185</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>64.834</v>
       </c>
     </row>
-    <row r="71" ht="28" hidden="1" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>191</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>9.727</v>
       </c>
     </row>
-    <row r="72" ht="28" hidden="1" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>6.202</v>
       </c>
     </row>
-    <row r="73" ht="28" hidden="1" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>197</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>4.945</v>
       </c>
     </row>
-    <row r="78" ht="28" hidden="1" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>4.209</v>
       </c>
     </row>
-    <row r="81" ht="82" hidden="1" spans="1:7">
+    <row r="81" hidden="1" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>219</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>11.422</v>
       </c>
     </row>
-    <row r="82" ht="28" hidden="1" spans="1:7">
+    <row r="82" hidden="1" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>222</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>19.394</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>225</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>60.695</v>
       </c>
     </row>
-    <row r="85" ht="28" hidden="1" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>230</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="86" ht="28" hidden="1" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>233</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>8.295</v>
       </c>
     </row>
-    <row r="87" ht="55" hidden="1" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>235</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>15.599</v>
       </c>
     </row>
-    <row r="88" ht="28" hidden="1" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>238</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>8.655</v>
       </c>
     </row>
-    <row r="89" ht="28" hidden="1" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>241</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>9.073</v>
       </c>
     </row>
-    <row r="90" ht="28" hidden="1" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>243</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>21.002</v>
       </c>
     </row>
-    <row r="93" ht="41" hidden="1" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>249</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>34.248</v>
       </c>
     </row>
-    <row r="97" ht="28" hidden="1" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>259</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>12.654</v>
       </c>
     </row>
-    <row r="98" ht="55" hidden="1" spans="1:7">
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>262</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>2.934</v>
       </c>
     </row>
-    <row r="99" ht="28" hidden="1" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>264</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>32.404</v>
       </c>
     </row>
-    <row r="101" ht="28" hidden="1" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>268</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>7.573</v>
       </c>
     </row>
-    <row r="102" ht="41" hidden="1" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>271</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>15.063</v>
       </c>
     </row>
-    <row r="103" ht="28" hidden="1" spans="1:7">
+    <row r="103" hidden="1" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>273</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>12.902</v>
       </c>
     </row>
-    <row r="104" ht="41" hidden="1" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>275</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>33.803</v>
       </c>
     </row>
-    <row r="105" ht="28" hidden="1" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>277</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>8.998</v>
       </c>
     </row>
-    <row r="106" ht="55" hidden="1" spans="1:7">
+    <row r="106" hidden="1" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>279</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>22.064</v>
       </c>
     </row>
-    <row r="108" ht="28" hidden="1" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>284</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>6.525</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>289</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>6.452</v>
       </c>
     </row>
-    <row r="111" ht="41" hidden="1" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>292</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="113" ht="41" hidden="1" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>298</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>73.068</v>
       </c>
     </row>
-    <row r="119" ht="28" hidden="1" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>312</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>3.362</v>
       </c>
     </row>
-    <row r="121" ht="41" hidden="1" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>316</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>4.051</v>
       </c>
     </row>
-    <row r="123" ht="41" hidden="1" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>320</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>6.098</v>
       </c>
     </row>
-    <row r="124" ht="28" hidden="1" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>323</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>11.796</v>
       </c>
     </row>
-    <row r="126" ht="28" hidden="1" spans="1:7">
+    <row r="126" hidden="1" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>328</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>8.225</v>
       </c>
     </row>
-    <row r="127" ht="41" hidden="1" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>330</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>22.33</v>
       </c>
     </row>
-    <row r="129" ht="28" hidden="1" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>335</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>15.902</v>
       </c>
     </row>
-    <row r="130" ht="28" hidden="1" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>338</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>6.166</v>
       </c>
     </row>
-    <row r="131" ht="41" hidden="1" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>341</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="133" ht="28" hidden="1" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>346</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>3.807</v>
       </c>
     </row>
-    <row r="134" ht="41" hidden="1" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>349</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>12.039</v>
       </c>
     </row>
-    <row r="135" ht="28" hidden="1" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>351</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>7.145</v>
       </c>
     </row>
-    <row r="136" ht="28" hidden="1" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>354</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>5.641</v>
       </c>
     </row>
-    <row r="137" ht="28" hidden="1" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>356</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>9.663</v>
       </c>
     </row>
-    <row r="141" ht="41" hidden="1" spans="1:7">
+    <row r="141" hidden="1" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>365</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>4.965</v>
       </c>
     </row>
-    <row r="143" ht="28" hidden="1" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>369</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>4.887</v>
       </c>
     </row>
-    <row r="144" ht="28" hidden="1" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>371</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>4.296</v>
       </c>
     </row>
-    <row r="145" ht="28" hidden="1" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>373</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>5.799</v>
       </c>
     </row>
-    <row r="146" ht="41" hidden="1" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>375</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>6.085</v>
       </c>
     </row>
-    <row r="147" ht="28" hidden="1" spans="1:7">
+    <row r="147" hidden="1" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>377</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>4.414</v>
       </c>
     </row>
-    <row r="148" ht="28" hidden="1" spans="1:7">
+    <row r="148" hidden="1" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>379</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>9.649</v>
       </c>
     </row>
-    <row r="149" ht="41" hidden="1" spans="1:7">
+    <row r="149" hidden="1" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>381</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="150" ht="28" hidden="1" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>384</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>3.986</v>
       </c>
     </row>
-    <row r="151" ht="41" hidden="1" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>386</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>12.871</v>
       </c>
     </row>
-    <row r="153" ht="28" hidden="1" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>391</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>2.649</v>
       </c>
     </row>
-    <row r="154" ht="41" hidden="1" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>393</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>10.377</v>
       </c>
     </row>
-    <row r="155" ht="41" hidden="1" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>395</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>11.729</v>
       </c>
     </row>
-    <row r="157" ht="28" hidden="1" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>400</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="159" ht="28" hidden="1" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>405</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>38.668</v>
       </c>
     </row>
-    <row r="161" ht="41" hidden="1" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>409</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>5.073</v>
       </c>
     </row>
-    <row r="163" ht="28" hidden="1" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>414</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>4.558</v>
       </c>
     </row>
-    <row r="164" ht="28" hidden="1" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>416</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>3.755</v>
       </c>
     </row>
-    <row r="165" ht="28" hidden="1" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>419</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>7.953</v>
       </c>
     </row>
-    <row r="166" ht="28" hidden="1" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>422</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="169" ht="55" hidden="1" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>428</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>35.44</v>
       </c>
     </row>
-    <row r="170" ht="28" hidden="1" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>430</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="171" ht="55" hidden="1" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>432</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>111.971</v>
       </c>
     </row>
-    <row r="172" ht="28" hidden="1" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>434</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>15.479</v>
       </c>
     </row>
-    <row r="173" ht="28" hidden="1" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>436</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>8.751</v>
       </c>
     </row>
-    <row r="174" ht="28" hidden="1" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>438</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>13.707</v>
       </c>
     </row>
-    <row r="176" ht="41" hidden="1" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" s="2" t="s">
         <v>442</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>10.621</v>
       </c>
     </row>
-    <row r="177" ht="28" hidden="1" spans="1:7">
+    <row r="177" hidden="1" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>444</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>3.823</v>
       </c>
     </row>
-    <row r="178" ht="28" hidden="1" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>446</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>7.769</v>
       </c>
     </row>
-    <row r="179" ht="28" hidden="1" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>448</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>5.866</v>
       </c>
     </row>
-    <row r="180" ht="28" hidden="1" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>450</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>24.748</v>
       </c>
     </row>
-    <row r="183" ht="28" hidden="1" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>456</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>4.476</v>
       </c>
     </row>
-    <row r="187" ht="28" hidden="1" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>465</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>7.276</v>
       </c>
     </row>
-    <row r="191" ht="28" hidden="1" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>474</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>11.528</v>
       </c>
     </row>
-    <row r="197" ht="28" hidden="1" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>487</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>42.936</v>
       </c>
     </row>
-    <row r="199" ht="28" hidden="1" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>493</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>8.127</v>
       </c>
     </row>
-    <row r="200" ht="41" hidden="1" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>495</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>6.439</v>
       </c>
     </row>
-    <row r="201" ht="28" hidden="1" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>497</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="202" ht="28" hidden="1" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>499</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>9.588</v>
       </c>
     </row>
-    <row r="203" ht="41" hidden="1" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>501</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>4.948</v>
       </c>
     </row>
-    <row r="204" ht="41" hidden="1" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>504</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>9.746</v>
       </c>
     </row>
-    <row r="205" ht="28" hidden="1" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>506</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>13.898</v>
       </c>
     </row>
-    <row r="206" ht="41" hidden="1" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>509</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>8.493</v>
       </c>
     </row>
-    <row r="207" ht="55" hidden="1" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>511</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>5.544</v>
       </c>
     </row>
-    <row r="208" ht="41" hidden="1" spans="1:7">
+    <row r="208" hidden="1" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>513</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>3.284</v>
       </c>
     </row>
-    <row r="210" ht="28" hidden="1" spans="1:7">
+    <row r="210" hidden="1" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>518</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="211" ht="41" hidden="1" spans="1:7">
+    <row r="211" hidden="1" spans="1:7">
       <c r="A211" s="2" t="s">
         <v>520</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>8.516</v>
       </c>
     </row>
-    <row r="212" ht="28" hidden="1" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>523</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>20.906</v>
       </c>
     </row>
-    <row r="213" ht="28" hidden="1" spans="1:7">
+    <row r="213" hidden="1" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>526</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>11.186</v>
       </c>
     </row>
-    <row r="215" ht="41" hidden="1" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>530</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>18.494</v>
       </c>
     </row>
-    <row r="217" ht="41" hidden="1" spans="1:7">
+    <row r="217" hidden="1" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>535</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>5.888</v>
       </c>
     </row>
-    <row r="218" ht="28" hidden="1" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>537</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>48.047</v>
       </c>
     </row>
-    <row r="219" ht="41" hidden="1" spans="1:7">
+    <row r="219" hidden="1" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>540</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>3.312</v>
       </c>
     </row>
-    <row r="224" ht="28" hidden="1" spans="1:7">
+    <row r="224" hidden="1" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>553</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="225" ht="28" hidden="1" spans="1:7">
+    <row r="225" hidden="1" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>555</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>12.663</v>
       </c>
     </row>
-    <row r="226" ht="28" hidden="1" spans="1:7">
+    <row r="226" hidden="1" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>557</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>10.479</v>
       </c>
     </row>
-    <row r="228" ht="28" hidden="1" spans="1:7">
+    <row r="228" hidden="1" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>563</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>8.735</v>
       </c>
     </row>
-    <row r="229" ht="28" hidden="1" spans="1:7">
+    <row r="229" hidden="1" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>566</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>3.314</v>
       </c>
     </row>
-    <row r="230" ht="28" hidden="1" spans="1:7">
+    <row r="230" hidden="1" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>569</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>4.745</v>
       </c>
     </row>
-    <row r="231" ht="28" hidden="1" spans="1:7">
+    <row r="231" hidden="1" spans="1:7">
       <c r="A231" s="2" t="s">
         <v>571</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>9.884</v>
       </c>
     </row>
-    <row r="233" ht="28" hidden="1" spans="1:7">
+    <row r="233" hidden="1" spans="1:7">
       <c r="A233" s="2" t="s">
         <v>576</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>4.774</v>
       </c>
     </row>
-    <row r="234" ht="41" hidden="1" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>579</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>3.132</v>
       </c>
     </row>
-    <row r="235" ht="28" hidden="1" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>581</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>219.814</v>
       </c>
     </row>
-    <row r="237" ht="28" hidden="1" spans="1:7">
+    <row r="237" hidden="1" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>585</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>26.669</v>
       </c>
     </row>
-    <row r="238" ht="41" hidden="1" spans="1:7">
+    <row r="238" hidden="1" spans="1:7">
       <c r="A238" s="2" t="s">
         <v>588</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>6.201</v>
       </c>
     </row>
-    <row r="240" ht="41" hidden="1" spans="1:7">
+    <row r="240" hidden="1" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>592</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="241" ht="28" hidden="1" spans="1:7">
+    <row r="241" hidden="1" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>594</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>9.462</v>
       </c>
     </row>
-    <row r="242" ht="28" hidden="1" spans="1:7">
+    <row r="242" hidden="1" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>596</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>4.783</v>
       </c>
     </row>
-    <row r="243" ht="28" hidden="1" spans="1:7">
+    <row r="243" hidden="1" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>599</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>10.227</v>
       </c>
     </row>
-    <row r="244" ht="41" hidden="1" spans="1:7">
+    <row r="244" hidden="1" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>601</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>11.049</v>
       </c>
     </row>
-    <row r="246" ht="28" hidden="1" spans="1:7">
+    <row r="246" hidden="1" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>606</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>305.114</v>
       </c>
     </row>
-    <row r="247" ht="41" hidden="1" spans="1:7">
+    <row r="247" hidden="1" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>608</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>7.373</v>
       </c>
     </row>
-    <row r="248" ht="41" hidden="1" spans="1:7">
+    <row r="248" hidden="1" spans="1:7">
       <c r="A248" s="2" t="s">
         <v>610</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>3.163</v>
       </c>
     </row>
-    <row r="250" ht="68" hidden="1" spans="1:7">
+    <row r="250" hidden="1" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>615</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>17.024</v>
       </c>
     </row>
-    <row r="251" ht="28" hidden="1" spans="1:7">
+    <row r="251" hidden="1" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>618</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>3.062</v>
       </c>
     </row>
-    <row r="252" ht="28" hidden="1" spans="1:7">
+    <row r="252" hidden="1" spans="1:7">
       <c r="A252" s="2" t="s">
         <v>620</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>3.272</v>
       </c>
     </row>
-    <row r="259" ht="41" hidden="1" spans="1:7">
+    <row r="259" hidden="1" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>638</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>18.278</v>
       </c>
     </row>
-    <row r="261" ht="41" hidden="1" spans="1:7">
+    <row r="261" hidden="1" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>643</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>6.924</v>
       </c>
     </row>
-    <row r="262" ht="28" hidden="1" spans="1:7">
+    <row r="262" hidden="1" spans="1:7">
       <c r="A262" s="2" t="s">
         <v>645</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>31.966</v>
       </c>
     </row>
-    <row r="263" ht="28" hidden="1" spans="1:7">
+    <row r="263" hidden="1" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>647</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>26.062</v>
       </c>
     </row>
-    <row r="264" ht="68" hidden="1" spans="1:7">
+    <row r="264" hidden="1" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>649</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>10.391</v>
       </c>
     </row>
-    <row r="265" ht="28" hidden="1" spans="1:7">
+    <row r="265" hidden="1" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>651</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>4.392</v>
       </c>
     </row>
-    <row r="270" ht="28" hidden="1" spans="1:7">
+    <row r="270" hidden="1" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>661</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>4.941</v>
       </c>
     </row>
-    <row r="271" ht="28" hidden="1" spans="1:7">
+    <row r="271" hidden="1" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>663</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>3.078</v>
       </c>
     </row>
-    <row r="272" ht="28" hidden="1" spans="1:7">
+    <row r="272" hidden="1" spans="1:7">
       <c r="A272" s="2" t="s">
         <v>666</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>9.045</v>
       </c>
     </row>
-    <row r="276" ht="55" hidden="1" spans="1:7">
+    <row r="276" hidden="1" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>675</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="277" ht="28" hidden="1" spans="1:7">
+    <row r="277" hidden="1" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>677</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>4.595</v>
       </c>
     </row>
-    <row r="278" ht="28" hidden="1" spans="1:7">
+    <row r="278" hidden="1" spans="1:7">
       <c r="A278" s="2" t="s">
         <v>680</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>12.863</v>
       </c>
     </row>
-    <row r="280" ht="41" hidden="1" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>684</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>21.079</v>
       </c>
     </row>
-    <row r="282" ht="41" hidden="1" spans="1:7">
+    <row r="282" hidden="1" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>689</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>11.194</v>
       </c>
     </row>
-    <row r="285" ht="28" hidden="1" spans="1:7">
+    <row r="285" hidden="1" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>696</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>13.333</v>
       </c>
     </row>
-    <row r="286" ht="41" hidden="1" spans="1:7">
+    <row r="286" hidden="1" spans="1:7">
       <c r="A286" s="2" t="s">
         <v>698</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>6.339</v>
       </c>
     </row>
-    <row r="288" ht="28" hidden="1" spans="1:7">
+    <row r="288" hidden="1" spans="1:7">
       <c r="A288" s="2" t="s">
         <v>702</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>41.78</v>
       </c>
     </row>
-    <row r="289" ht="55" hidden="1" spans="1:7">
+    <row r="289" hidden="1" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>704</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>25.534</v>
       </c>
     </row>
-    <row r="290" ht="28" hidden="1" spans="1:7">
+    <row r="290" hidden="1" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>706</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>7.614</v>
       </c>
     </row>
-    <row r="291" ht="41" hidden="1" spans="1:7">
+    <row r="291" hidden="1" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>708</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>3.186</v>
       </c>
     </row>
-    <row r="292" ht="41" hidden="1" spans="1:7">
+    <row r="292" hidden="1" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>710</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>19.277</v>
       </c>
     </row>
-    <row r="294" ht="41" hidden="1" spans="1:7">
+    <row r="294" hidden="1" spans="1:7">
       <c r="A294" s="2" t="s">
         <v>716</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>9.612</v>
       </c>
     </row>
-    <row r="295" ht="55" hidden="1" spans="1:7">
+    <row r="295" hidden="1" spans="1:7">
       <c r="A295" s="2" t="s">
         <v>718</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>15.022</v>
       </c>
     </row>
-    <row r="296" ht="28" hidden="1" spans="1:7">
+    <row r="296" hidden="1" spans="1:7">
       <c r="A296" s="2" t="s">
         <v>721</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>4.407</v>
       </c>
     </row>
-    <row r="297" ht="28" hidden="1" spans="1:7">
+    <row r="297" hidden="1" spans="1:7">
       <c r="A297" s="2" t="s">
         <v>723</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>5.565</v>
       </c>
     </row>
-    <row r="298" ht="28" hidden="1" spans="1:7">
+    <row r="298" hidden="1" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>725</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>25.195</v>
       </c>
     </row>
-    <row r="299" ht="28" hidden="1" spans="1:7">
+    <row r="299" hidden="1" spans="1:7">
       <c r="A299" s="2" t="s">
         <v>727</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>26.553</v>
       </c>
     </row>
-    <row r="300" ht="28" hidden="1" spans="1:7">
+    <row r="300" hidden="1" spans="1:7">
       <c r="A300" s="2" t="s">
         <v>729</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>21.966</v>
       </c>
     </row>
-    <row r="305" ht="41" hidden="1" spans="1:7">
+    <row r="305" hidden="1" spans="1:7">
       <c r="A305" s="2" t="s">
         <v>739</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>6.461</v>
       </c>
     </row>
-    <row r="307" ht="28" hidden="1" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" s="2" t="s">
         <v>744</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>14.639</v>
       </c>
     </row>
-    <row r="308" ht="28" hidden="1" spans="1:7">
+    <row r="308" hidden="1" spans="1:7">
       <c r="A308" s="2" t="s">
         <v>746</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>8.769</v>
       </c>
     </row>
-    <row r="309" ht="28" hidden="1" spans="1:7">
+    <row r="309" hidden="1" spans="1:7">
       <c r="A309" s="2" t="s">
         <v>748</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="310" ht="41" hidden="1" spans="1:7">
+    <row r="310" hidden="1" spans="1:7">
       <c r="A310" s="2" t="s">
         <v>750</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>7.565</v>
       </c>
     </row>
-    <row r="314" ht="28" hidden="1" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" s="2" t="s">
         <v>758</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>51.261</v>
       </c>
     </row>
-    <row r="315" ht="55" hidden="1" spans="1:7">
+    <row r="315" hidden="1" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>760</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>4.821</v>
       </c>
     </row>
-    <row r="317" ht="28" hidden="1" spans="1:7">
+    <row r="317" hidden="1" spans="1:7">
       <c r="A317" s="2" t="s">
         <v>764</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>5.437</v>
       </c>
     </row>
-    <row r="318" ht="28" hidden="1" spans="1:7">
+    <row r="318" hidden="1" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>766</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>10.626</v>
       </c>
     </row>
-    <row r="322" ht="28" hidden="1" spans="1:7">
+    <row r="322" hidden="1" spans="1:7">
       <c r="A322" s="2" t="s">
         <v>775</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>16.389</v>
       </c>
     </row>
-    <row r="323" ht="55" hidden="1" spans="1:7">
+    <row r="323" hidden="1" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>777</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>12.825</v>
       </c>
     </row>
-    <row r="324" ht="28" hidden="1" spans="1:7">
+    <row r="324" hidden="1" spans="1:7">
       <c r="A324" s="2" t="s">
         <v>779</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>2.643</v>
       </c>
     </row>
-    <row r="326" ht="28" hidden="1" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>784</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>10.743</v>
       </c>
     </row>
-    <row r="327" ht="28" hidden="1" spans="1:7">
+    <row r="327" hidden="1" spans="1:7">
       <c r="A327" s="2" t="s">
         <v>786</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>11.442</v>
       </c>
     </row>
-    <row r="328" ht="28" hidden="1" spans="1:7">
+    <row r="328" hidden="1" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>788</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>4.809</v>
       </c>
     </row>
-    <row r="329" ht="41" hidden="1" spans="1:7">
+    <row r="329" hidden="1" spans="1:7">
       <c r="A329" s="2" t="s">
         <v>791</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>4.261</v>
       </c>
     </row>
-    <row r="333" ht="28" hidden="1" spans="1:7">
+    <row r="333" hidden="1" spans="1:7">
       <c r="A333" s="2" t="s">
         <v>799</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>5.249</v>
       </c>
     </row>
-    <row r="334" ht="28" hidden="1" spans="1:7">
+    <row r="334" hidden="1" spans="1:7">
       <c r="A334" s="2" t="s">
         <v>801</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>31.891</v>
       </c>
     </row>
-    <row r="337" ht="55" hidden="1" spans="1:7">
+    <row r="337" hidden="1" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>808</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>7.364</v>
       </c>
     </row>
-    <row r="338" ht="28" hidden="1" spans="1:7">
+    <row r="338" hidden="1" spans="1:7">
       <c r="A338" s="2" t="s">
         <v>811</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>4.128</v>
       </c>
     </row>
-    <row r="339" ht="28" hidden="1" spans="1:7">
+    <row r="339" hidden="1" spans="1:7">
       <c r="A339" s="2" t="s">
         <v>813</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>3.318</v>
       </c>
     </row>
-    <row r="340" ht="41" hidden="1" spans="1:7">
+    <row r="340" hidden="1" spans="1:7">
       <c r="A340" s="2" t="s">
         <v>816</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>9.073</v>
       </c>
     </row>
-    <row r="341" ht="28" hidden="1" spans="1:7">
+    <row r="341" hidden="1" spans="1:7">
       <c r="A341" s="2" t="s">
         <v>819</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>49.475</v>
       </c>
     </row>
-    <row r="343" ht="28" hidden="1" spans="1:7">
+    <row r="343" hidden="1" spans="1:7">
       <c r="A343" s="2" t="s">
         <v>823</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>62.526</v>
       </c>
     </row>
-    <row r="344" ht="28" hidden="1" spans="1:7">
+    <row r="344" hidden="1" spans="1:7">
       <c r="A344" s="2" t="s">
         <v>825</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>32.798</v>
       </c>
     </row>
-    <row r="346" ht="28" hidden="1" spans="1:7">
+    <row r="346" hidden="1" spans="1:7">
       <c r="A346" s="2" t="s">
         <v>829</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>19.65</v>
       </c>
     </row>
-    <row r="347" ht="28" hidden="1" spans="1:7">
+    <row r="347" hidden="1" spans="1:7">
       <c r="A347" s="2" t="s">
         <v>832</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>22.321</v>
       </c>
     </row>
-    <row r="348" ht="28" hidden="1" spans="1:7">
+    <row r="348" hidden="1" spans="1:7">
       <c r="A348" s="2" t="s">
         <v>834</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>15.516</v>
       </c>
     </row>
-    <row r="349" ht="68" hidden="1" spans="1:7">
+    <row r="349" hidden="1" spans="1:7">
       <c r="A349" s="2" t="s">
         <v>837</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>3.407</v>
       </c>
     </row>
-    <row r="350" ht="55" hidden="1" spans="1:7">
+    <row r="350" hidden="1" spans="1:7">
       <c r="A350" s="2" t="s">
         <v>839</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>9.729</v>
       </c>
     </row>
-    <row r="352" ht="28" hidden="1" spans="1:7">
+    <row r="352" hidden="1" spans="1:7">
       <c r="A352" s="2" t="s">
         <v>843</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>19.773</v>
       </c>
     </row>
-    <row r="357" ht="28" hidden="1" spans="1:7">
+    <row r="357" hidden="1" spans="1:7">
       <c r="A357" s="2" t="s">
         <v>853</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>6.655</v>
       </c>
     </row>
-    <row r="359" ht="28" hidden="1" spans="1:7">
+    <row r="359" hidden="1" spans="1:7">
       <c r="A359" s="2" t="s">
         <v>857</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>4.514</v>
       </c>
     </row>
-    <row r="360" ht="28" hidden="1" spans="1:7">
+    <row r="360" hidden="1" spans="1:7">
       <c r="A360" s="2" t="s">
         <v>859</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>47.677</v>
       </c>
     </row>
-    <row r="361" ht="28" hidden="1" spans="1:7">
+    <row r="361" hidden="1" spans="1:7">
       <c r="A361" s="2" t="s">
         <v>861</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>4.262</v>
       </c>
     </row>
-    <row r="362" ht="28" hidden="1" spans="1:7">
+    <row r="362" hidden="1" spans="1:7">
       <c r="A362" s="2" t="s">
         <v>864</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>33.392</v>
       </c>
     </row>
-    <row r="365" ht="28" hidden="1" spans="1:7">
+    <row r="365" hidden="1" spans="1:7">
       <c r="A365" s="2" t="s">
         <v>871</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="368" ht="28" hidden="1" spans="1:7">
+    <row r="368" hidden="1" spans="1:7">
       <c r="A368" s="2" t="s">
         <v>879</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="369" ht="28" hidden="1" spans="1:7">
+    <row r="369" hidden="1" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>881</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="370" ht="41" hidden="1" spans="1:7">
+    <row r="370" hidden="1" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>883</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>19.688</v>
       </c>
     </row>
-    <row r="373" ht="28" hidden="1" spans="1:7">
+    <row r="373" hidden="1" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>889</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>12.485</v>
       </c>
     </row>
-    <row r="378" ht="28" hidden="1" spans="1:7">
+    <row r="378" hidden="1" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>902</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>18.035</v>
       </c>
     </row>
-    <row r="380" ht="28" hidden="1" spans="1:7">
+    <row r="380" hidden="1" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>907</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>7.822</v>
       </c>
     </row>
-    <row r="381" ht="28" hidden="1" spans="1:7">
+    <row r="381" hidden="1" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>909</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>5.856</v>
       </c>
     </row>
-    <row r="386" ht="28" hidden="1" spans="1:7">
+    <row r="386" hidden="1" spans="1:7">
       <c r="A386" s="2" t="s">
         <v>920</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>7.085</v>
       </c>
     </row>
-    <row r="387" ht="28" hidden="1" spans="1:7">
+    <row r="387" hidden="1" spans="1:7">
       <c r="A387" s="2" t="s">
         <v>922</v>
       </c>
